--- a/Remises/Remise 4/MatriceVérificationPerformances.xlsx
+++ b/Remises/Remise 4/MatriceVérificationPerformances.xlsx
@@ -1,46 +1,891 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="153222"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gaetan\Documents\GitHub\design3\Remises\Remise 4\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12624"/>
   </bookViews>
   <sheets>
-    <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>test</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="193">
+  <si>
+    <t>Niveau</t>
+  </si>
+  <si>
+    <t>Sous-niveau</t>
+  </si>
+  <si>
+    <t>Paramètres critique</t>
+  </si>
+  <si>
+    <t>Méthode de vérification</t>
+  </si>
+  <si>
+    <t>Équipement requis</t>
+  </si>
+  <si>
+    <t>Alimenter les éléments du système de façon sécuritaire</t>
+  </si>
+  <si>
+    <t>Alimenter le robot avec une batterie unique</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>Robot, batterie, circuit d'alimentation, multimètre</t>
+  </si>
+  <si>
+    <t>Vérifier les différents niveaux de tension et leur stabilité à l'aide du multimètre, vérifier le temps de décharge de la batterie, vérifier que la puissance maximale de la batterie est suffisante</t>
+  </si>
+  <si>
+    <t>Charger le condensateur jusqu'à une tension précise</t>
+  </si>
+  <si>
+    <t>Condensateur, station de recharge, chronomètre</t>
+  </si>
+  <si>
+    <t>Chronométrer le temps de recharge du condensateur, arrêter la recharge lorsque la tension désirée est atteinte</t>
+  </si>
+  <si>
+    <t>Signaler une alerte en cas de danger</t>
+  </si>
+  <si>
+    <t>Temps avant alarme</t>
+  </si>
+  <si>
+    <t>Batterie, alarme de la batterie</t>
+  </si>
+  <si>
+    <t>Faire descendre la tension de la batterie et vérifier que l'alarme sonne</t>
+  </si>
+  <si>
+    <t>Protéger adéquatement les élements du système</t>
+  </si>
+  <si>
+    <t>Analyse</t>
+  </si>
+  <si>
+    <t>Batterie, circuit d'alimentation</t>
+  </si>
+  <si>
+    <t>Vérifier l'intégralité des fusible</t>
+  </si>
+  <si>
+    <t>Exécuter la routine de façon autonome</t>
+  </si>
+  <si>
+    <t>Démarrer les routines du robot de façon sans intervention extérieure</t>
+  </si>
+  <si>
+    <t>Temps de démarrage</t>
+  </si>
+  <si>
+    <t>Ordinateur embarqué</t>
+  </si>
+  <si>
+    <t>Ouvrir l'ordinateur embarqué et s'assurer que la routine démarre à son ouverture</t>
+  </si>
+  <si>
+    <t>Confirmer le départ à partir de la station de base</t>
+  </si>
+  <si>
+    <t>Délai avant départ</t>
+  </si>
+  <si>
+    <t>Station de base, ordinateur embarqué</t>
+  </si>
+  <si>
+    <t>Appuyer sur le bouton de départ sur la station de base et s'assurer que l'ordinateur embarqué reçoit bien le signal et exécute la routine</t>
+  </si>
+  <si>
+    <t>Exécuter la routine en moins de 10 minutes</t>
+  </si>
+  <si>
+    <t>Temps d'exécution</t>
+  </si>
+  <si>
+    <t>Tous les sytèmes fonctionnels</t>
+  </si>
+  <si>
+    <t>Faire la routine complète avec le robot et chronométrer le temps requis</t>
+  </si>
+  <si>
+    <t>Confirmer la fin de l'exécution et afficher le temps écoulé sur la station de base</t>
+  </si>
+  <si>
+    <t>Précision du temps écoulé</t>
+  </si>
+  <si>
+    <t>Ordinateur embarqué, station de base, chronomètre externe</t>
+  </si>
+  <si>
+    <t>S'assurer que le chronomètre interne du système fonctionne et que le signal d'arrêt de la routine se fait à la fin de la routine</t>
+  </si>
+  <si>
+    <t>Interpréter une vision monde et embarquée de la table</t>
+  </si>
+  <si>
+    <t>Reconnaître les îles</t>
+  </si>
+  <si>
+    <t>Précision sur la position</t>
+  </si>
+  <si>
+    <t>Déposer des îles sur la table et vérifier que le système de vision peut les détecter. Le faire dans différentes condition de luminosités, avec différentes personnes autour de la table et avec en portant des chandails de couleurs variées</t>
+  </si>
+  <si>
+    <t>Distinguer les trésors</t>
+  </si>
+  <si>
+    <t>Déposer des trésors sur la table et vérifier que le système de vision peut les détecter. Le faire dans différentes condition de luminosités, avec différentes personnes autour de la table et avec en portant des chandails de couleurs variées</t>
+  </si>
+  <si>
+    <t>Caméra embarquée, station de recharge</t>
+  </si>
+  <si>
+    <t>Vérifier la détection adéquate de la station de recharge. Le faire dans différentes condition de luminosités, avec différentes personnes autour de la table et avec en portant des chandails de couleurs variées</t>
+  </si>
+  <si>
+    <t>Se déplacer de façon autonome</t>
+  </si>
+  <si>
+    <t>Commander les roues</t>
+  </si>
+  <si>
+    <t>Microcontrôleur, roues</t>
+  </si>
+  <si>
+    <t>Faire déplacer le robot à l'aide de commande simples. Bloquer les roues et laisser le système aller afin de vérifier la stabilité de l'asservissement. Vérifier la précision des déplacements du robot</t>
+  </si>
+  <si>
+    <t>Éviter un contact avec les murs et les îles</t>
+  </si>
+  <si>
+    <t>Table de jeu, îles, robot</t>
+  </si>
+  <si>
+    <t>Micocontrôleur, pololu, caméra embarquée</t>
+  </si>
+  <si>
+    <t>Vérifier la précision du déplacement de la caméra embarquée</t>
+  </si>
+  <si>
+    <t>Manipuler un trésor à l'aide du préhenseur</t>
+  </si>
+  <si>
+    <t>Prendre et soulever le trésor</t>
+  </si>
+  <si>
+    <t>Être capable de soulever un trésor</t>
+  </si>
+  <si>
+    <t>Préhenseur, électroaimant, trésor</t>
+  </si>
+  <si>
+    <t>Alimenter l'électroaimant et vérifier qu'il peut attirer et retenir un trésor. Faire soulever le trésor à l'aide du préhenseur et s'assurer que le trésor reste collé.</t>
+  </si>
+  <si>
+    <t>Garder le trésor lors du déplacement vers l'îles cible</t>
+  </si>
+  <si>
+    <t>Durée de la tenue du trésor</t>
+  </si>
+  <si>
+    <t>Préhenseur, électroaimant, trésor, chronomètre</t>
+  </si>
+  <si>
+    <t>Garder le trésor collé sur l'électroaimant et chronométrer le temps avant la chute du trésor. S'assurer que ce temps est suffisament long pour tenir le trésor le temps du déplacement vers l'île cible</t>
+  </si>
+  <si>
+    <t>Déposer le trésor sur l'île cible</t>
+  </si>
+  <si>
+    <t>Préhenseur, électroaimant, trésor, robot</t>
+  </si>
+  <si>
+    <t>Vérifier la précision de l'endroit où le trésor est déposé et que le trésor ne reste pas collé sur l'électroaimant</t>
+  </si>
+  <si>
+    <t>Afficher en temps réel le statut des élements du système sur la station de base</t>
+  </si>
+  <si>
+    <t>Afficher les trajectoires (prévue et réelle) du robot</t>
+  </si>
+  <si>
+    <t>Taux de rafraichissement</t>
+  </si>
+  <si>
+    <t>Station de base, robot, caméra monde, ruban à mesuer</t>
+  </si>
+  <si>
+    <t>S'assurer que la trajectoire prévue s'affiche bien sur la station de base. Vérifier la précision de l'affichage de la trajectoire réelle du robot à l'aide du ruban à mesurer</t>
+  </si>
+  <si>
+    <t>Afficher la position et l'orientation du robot</t>
+  </si>
+  <si>
+    <t>Vérifier la précision de l'affichage de la position et de l'orientation du robot à l'aide du ruban à mesurer</t>
+  </si>
+  <si>
+    <t>Afficher la tension aux bornes du condensateur</t>
+  </si>
+  <si>
+    <t>Station de base, condensateur, microcontôleur, ordinateur embarqué, multimètre</t>
+  </si>
+  <si>
+    <t>Tester la précision de la lecture de tension par le microcontrôleur à l'aide d'un multimètre externe. Vérifier l'affichage de la bonne tension sur la station de base</t>
+  </si>
+  <si>
+    <t>Afficher la position des îles et des trésors</t>
+  </si>
+  <si>
+    <t>Station de base, table de jeu, trésors, îles, ruban à mesurer</t>
+  </si>
+  <si>
+    <t>Vérifier que la station de base affiche précisément les îles (la bonne forme, la bonne couleur et la bonne position) ainsi que les trésors à l'aide du ruban à mesurer</t>
+  </si>
+  <si>
+    <t>Afficher la description de l'île cible (forme ou couleur)</t>
+  </si>
+  <si>
+    <t>Station de base</t>
+  </si>
+  <si>
+    <t>S'assurer que la station de base affiche la bonne description de l'île cible (forme ou couleur)</t>
+  </si>
+  <si>
+    <t>Communiquer entre les élements du système</t>
+  </si>
+  <si>
+    <t>Communiquer entre l'ordinateur du robot et le microcontrôleur par UART</t>
+  </si>
+  <si>
+    <t>Microcontrôleur, ordinateur embarqué</t>
+  </si>
+  <si>
+    <t>Vérifier le fonctionnement de la communication entre l'ordinateur embarqué et le microcontrôleur, s'assurer qu'aucun paquet n'est perdu lors de la communication</t>
+  </si>
+  <si>
+    <t>Communiquer sans fil entre l'ordinateur du robot et la station de base</t>
+  </si>
+  <si>
+    <t>Ordinateur embarqué, station de base</t>
+  </si>
+  <si>
+    <t>Envoyer des fichiers entre l'ordinateur embarqué et la station de base et s'assurer de leur bonne réception</t>
+  </si>
+  <si>
+    <t>Communiquer sans fil le code Manchester</t>
+  </si>
+  <si>
+    <t>Taux de réussite de la communication</t>
+  </si>
+  <si>
+    <t>Circuit d'émission du code Manchester, circuit de détection du code Manchester</t>
+  </si>
+  <si>
+    <t>Émettre le code Manchester, le recevoir et s'assurer que les bits reçus sont les bons</t>
+  </si>
+  <si>
+    <t>Communiquer sans fil entre le robot et le serveur des îles</t>
+  </si>
+  <si>
+    <t>Vérifier que l'ordinateur embarqué peut se connecter au serveur des îles</t>
+  </si>
+  <si>
+    <t>Décoder et envoyer la bonne lettre au serveur des îles</t>
+  </si>
+  <si>
+    <t>Taux de réussite du décodage</t>
+  </si>
+  <si>
+    <t>Générer et décoder un code ASCII avec l'ordinateur embarqué et envoyer la lettre correspondante au serveur des îles</t>
+  </si>
+  <si>
+    <t>Méthode de test</t>
+  </si>
+  <si>
+    <t>Exigence</t>
+  </si>
+  <si>
+    <t>Tension minimum de la batterie, 
+variation de tension des régulateurs</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">21V
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.2V</t>
+    </r>
+  </si>
+  <si>
+    <t>10 secondes</t>
+  </si>
+  <si>
+    <t>Courant maximum</t>
+  </si>
+  <si>
+    <t>10A max à la sortie de la batterie</t>
+  </si>
+  <si>
+    <t>2 minutes</t>
+  </si>
+  <si>
+    <t>5 secondes</t>
+  </si>
+  <si>
+    <t>10 minutes</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1%</t>
+    </r>
+  </si>
+  <si>
+    <t>Reconnaître le robot</t>
+  </si>
+  <si>
+    <t>Caméra monde, table de jeu, robot</t>
+  </si>
+  <si>
+    <t>Déposer le robot sur la table et vérifier que le système de vision peut le détecter. Le faire dans différentes condition de luminosités, avec différentes personnes autour de la table.</t>
+  </si>
+  <si>
+    <t>Caméra monde, caméra embarquée table de jeu, îles</t>
+  </si>
+  <si>
+    <t>Précision sur la position
+Efficacité de la détection de la forme ou de la couleur</t>
+  </si>
+  <si>
+    <t>±2cm
+97%</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.5cm</t>
+    </r>
+  </si>
+  <si>
+    <t>Caméra monde, caméra embarquée, table de jeu, trésors</t>
+  </si>
+  <si>
+    <t>±5cm</t>
+  </si>
+  <si>
+    <t>S'enligner sur la station de recharge</t>
+  </si>
+  <si>
+    <t>±0.5cm</t>
+  </si>
+  <si>
+    <t>Déplacement minimal,  
+pourcentage de déviation en déplacement</t>
+  </si>
+  <si>
+    <t>1cm
+3%</t>
+  </si>
+  <si>
+    <t>5cm</t>
+  </si>
+  <si>
+    <t>Temps de rotation minimale</t>
+  </si>
+  <si>
+    <t>1 seconde</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>150 secondes</t>
+  </si>
+  <si>
+    <t>Précision du dépôt du trésor</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2cm</t>
+    </r>
+  </si>
+  <si>
+    <t>Taux de réussite</t>
+  </si>
+  <si>
+    <t>Délai de communication maximale</t>
+  </si>
+  <si>
+    <t>Délai de communication maximal</t>
+  </si>
+  <si>
+    <t>Taux de rafraichissement
+Précision de la lecture de la tension</t>
+  </si>
+  <si>
+    <t>5 secondes
+±0.2V</t>
+  </si>
+  <si>
+    <t>90 secondes
+±0.5V</t>
+  </si>
+  <si>
+    <t>Temps de recharge,
+variation de tension du condensateur</t>
+  </si>
+  <si>
+    <t>Déplacer la caméra embarquée</t>
+  </si>
+  <si>
+    <t>Établir une trajectoire à partir de la vision</t>
+  </si>
+  <si>
+    <t>Fréquence de mise à jour de la trajectoire</t>
+  </si>
+  <si>
+    <t>0.2 Hz</t>
+  </si>
+  <si>
+    <t>Station de base, robot, caméra monde, chronomètre externe</t>
+  </si>
+  <si>
+    <t>Déposer le robot sur la table et le déplacer. Vérifier que la vitesse à laquelle la trajectoire affichée sur la station de base se met à jour.</t>
+  </si>
+  <si>
+    <t>Distance maximale d'arrêt</t>
+  </si>
+  <si>
+    <t>Lors d'un dépassement de commande avec l'asservissement, demander au robot d'arrêter et mesurer la distance parcourue.</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>Commentaires</t>
+  </si>
+  <si>
+    <t>Marge</t>
+  </si>
+  <si>
+    <t>Min 22V
+±0.1V</t>
+  </si>
+  <si>
+    <t>1V
+0.1V</t>
+  </si>
+  <si>
+    <t>La tension de la batterie ne descendait pas sous 22V car l'alarme sonnait avait et nous la rechargions.</t>
+  </si>
+  <si>
+    <t>La recharge du condensateur se fait très rapidement lorsque bien aligné. La lecture de la tension se fait avec une erreur très légère.</t>
+  </si>
+  <si>
+    <r>
+      <t>60</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>5 secondes
+0.05V</t>
+    </r>
+  </si>
+  <si>
+    <t>30 secondes
+0.45V</t>
+  </si>
+  <si>
+    <t>0 secondes</t>
+  </si>
+  <si>
+    <t>L'alarme sonne instantanément</t>
+  </si>
+  <si>
+    <t>Atteinte</t>
+  </si>
+  <si>
+    <t>Le fusible de 10A n'a jamais sauté</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>~</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>20 secondes</t>
+    </r>
+  </si>
+  <si>
+    <t>100 secondes</t>
+  </si>
+  <si>
+    <t>2 secondes</t>
+  </si>
+  <si>
+    <t>Lorsque le réseau était bien fonctionnel le délai était très faible avant le début de l'exécution des commandes.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">4 minutes </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> 30 secondes</t>
+    </r>
+  </si>
+  <si>
+    <t>5 minutes</t>
+  </si>
+  <si>
+    <t>3 secondes</t>
+  </si>
+  <si>
+    <t>Dépendamment du parcous le robot mettait plus ou moins de temps à accomplir sa tâche.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2cm
+99%</t>
+    </r>
+  </si>
+  <si>
+    <t>0cm
+2%</t>
+  </si>
+  <si>
+    <t>0.5cm</t>
+  </si>
+  <si>
+    <t>0cm</t>
+  </si>
+  <si>
+    <t>La détection des trésors est très précise, par contre le taux de réussite de la détection par la caméra embarquée est assez faible.</t>
+  </si>
+  <si>
+    <t>±4cm</t>
+  </si>
+  <si>
+    <t>1cm</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>4cm</t>
+    </r>
+  </si>
+  <si>
+    <t>3.5cm</t>
+  </si>
+  <si>
+    <t>Malgré que la spécification n'est pas atteinte, le robot était tout de même assez bien aligné dans la majorité des cas et la recharge fonctionnait bien. Une touchette permettait de régler les cas extrêmes.</t>
+  </si>
+  <si>
+    <t>1Hz</t>
+  </si>
+  <si>
+    <t>0.8Hz</t>
+  </si>
+  <si>
+    <t>0cm
+0</t>
+  </si>
+  <si>
+    <t>Le robot dévie d'environ 3% au maximum lors de ses déplacements vers l'avant, par contre sur la droite ou la gauche le déplacement était bon.</t>
+  </si>
+  <si>
+    <t>Max 2cm</t>
+  </si>
+  <si>
+    <t>3cm</t>
+  </si>
+  <si>
+    <t>0.1 seconde</t>
+  </si>
+  <si>
+    <t>0.9 seconde</t>
+  </si>
+  <si>
+    <t>Atteint</t>
+  </si>
+  <si>
+    <t>180 secondes</t>
+  </si>
+  <si>
+    <t>30 secondes</t>
+  </si>
+  <si>
+    <t>Le système peut tenir le trésor durant environ 180 secondes seulement avec l'électroaimant. De plus, nous avions conçu un système permettant de relâcher le trésor dans une cavité sur le robot et donc d'avoir un temps de préhension très long.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2cm</t>
+    </r>
+  </si>
+  <si>
+    <t>Le trésor était presque toujours entièrement compris dans l'île.</t>
+  </si>
+  <si>
+    <t>La trajectoire était suffisamment précise. Le robot ne roulait pas sur les îles.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1 seconde
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>±</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="8.5"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>0.1V</t>
+    </r>
+  </si>
+  <si>
+    <t>4 secondes
+0.1V</t>
+  </si>
+  <si>
+    <t>Lorsque le réseau est bien fonctionnel, il n'y avait aucun délai. Évidemment lorsque la connection était perdue il était nécessaire d'attendre de la récupérer.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="8.5"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -48,18 +893,195 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+  <cellXfs count="46">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -82,39 +1104,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="1F497D"/>
+        <a:srgbClr val="44546A"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="EEECE1"/>
+        <a:srgbClr val="E7E6E6"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4F81BD"/>
+        <a:srgbClr val="5B9BD5"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="C0504D"/>
+        <a:srgbClr val="ED7D31"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="9BBB59"/>
+        <a:srgbClr val="A5A5A5"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="8064A2"/>
+        <a:srgbClr val="FFC000"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="4BACC6"/>
+        <a:srgbClr val="4472C4"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="F79646"/>
+        <a:srgbClr val="70AD47"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0000FF"/>
+        <a:srgbClr val="0563C1"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="800080"/>
+        <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -193,183 +1215,1134 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="50000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="35000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="37000"/>
-                <a:satMod val="300000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:tint val="15000"/>
-                <a:satMod val="350000"/>
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="1"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:shade val="51000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="80000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:shade val="93000"/>
-                <a:satMod val="130000"/>
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="94000"/>
-                <a:satMod val="135000"/>
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="16200000" scaled="0"/>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr">
-              <a:shade val="95000"/>
-              <a:satMod val="105000"/>
-            </a:schemeClr>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-        </a:ln>
-        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="38000"/>
+                <a:alpha val="63000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst>
-            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
-              <a:srgbClr val="000000">
-                <a:alpha val="35000"/>
-              </a:srgbClr>
-            </a:outerShdw>
-          </a:effectLst>
-          <a:scene3d>
-            <a:camera prst="orthographicFront">
-              <a:rot lat="0" lon="0" rev="0"/>
-            </a:camera>
-            <a:lightRig rig="threePt" dir="t">
-              <a:rot lat="0" lon="0" rev="1200000"/>
-            </a:lightRig>
-          </a:scene3d>
-          <a:sp3d>
-            <a:bevelT w="63500" h="25400"/>
-          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="40000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
               </a:schemeClr>
             </a:gs>
-            <a:gs pos="40000">
+            <a:gs pos="50000">
               <a:schemeClr val="phClr">
-                <a:tint val="45000"/>
-                <a:shade val="99000"/>
-                <a:satMod val="350000"/>
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="20000"/>
-                <a:satMod val="255000"/>
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
-          </a:path>
-        </a:gradFill>
-        <a:gradFill rotWithShape="1">
-          <a:gsLst>
-            <a:gs pos="0">
-              <a:schemeClr val="phClr">
-                <a:tint val="80000"/>
-                <a:satMod val="300000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="100000">
-              <a:schemeClr val="phClr">
-                <a:shade val="30000"/>
-                <a:satMod val="200000"/>
-              </a:schemeClr>
-            </a:gs>
-          </a:gsLst>
-          <a:path path="circle">
-            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
-          </a:path>
+          <a:lin ang="5400000" scaled="0"/>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J43"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F32" sqref="F32"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="66.6640625" customWidth="1"/>
+    <col min="2" max="2" width="67.5546875" customWidth="1"/>
+    <col min="3" max="3" width="52.6640625" customWidth="1"/>
+    <col min="4" max="4" width="31.21875" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="27.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.77734375" style="4" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.6640625" style="4" customWidth="1"/>
+    <col min="8" max="8" width="67.44140625" customWidth="1"/>
+    <col min="9" max="9" width="92" customWidth="1"/>
+    <col min="10" max="10" width="61.109375" style="37" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="F1" s="39" t="s">
+        <v>144</v>
+      </c>
+      <c r="G1" s="39" t="s">
+        <v>146</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="J1" s="38" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="27.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="30" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="F2" s="41" t="s">
+        <v>147</v>
+      </c>
+      <c r="G2" s="42" t="s">
+        <v>148</v>
+      </c>
+      <c r="H2" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="J2" s="40" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A3" s="31"/>
+      <c r="B3" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>134</v>
+      </c>
+      <c r="F3" s="42" t="s">
+        <v>151</v>
+      </c>
+      <c r="G3" s="42" t="s">
+        <v>152</v>
+      </c>
+      <c r="H3" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="I3" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="J3" s="40" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A4" s="31"/>
+      <c r="B4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E4" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="G4" s="43" t="s">
+        <v>102</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" s="40" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A5" s="32"/>
+      <c r="B5" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E5" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F5" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="G5" s="15"/>
+      <c r="H5" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="I5" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="J5" s="40" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="6"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+      <c r="H6" s="16"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="36"/>
+    </row>
+    <row r="7" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E7" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="F7" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="G7" s="43" t="s">
+        <v>158</v>
+      </c>
+      <c r="H7" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I7" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="J7" s="36"/>
+    </row>
+    <row r="8" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A8" s="31"/>
+      <c r="B8" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E8" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F8" s="43" t="s">
+        <v>159</v>
+      </c>
+      <c r="G8" s="43" t="s">
+        <v>163</v>
+      </c>
+      <c r="H8" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="J8" s="40" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" ht="27" x14ac:dyDescent="0.3">
+      <c r="A9" s="31"/>
+      <c r="B9" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="F9" s="43" t="s">
+        <v>161</v>
+      </c>
+      <c r="G9" s="43" t="s">
+        <v>162</v>
+      </c>
+      <c r="H9" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="J9" s="40" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="27" x14ac:dyDescent="0.3">
+      <c r="A10" s="32"/>
+      <c r="B10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="D10" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E10" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="F10" s="43" t="s">
+        <v>155</v>
+      </c>
+      <c r="G10" s="15"/>
+      <c r="H10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="I10" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="J10" s="36"/>
+    </row>
+    <row r="11" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A11" s="5"/>
+      <c r="B11" s="6"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="18"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="16"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="36"/>
+    </row>
+    <row r="12" spans="1:10" ht="40.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A12" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="D12" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>114</v>
+      </c>
+      <c r="F12" s="42" t="s">
+        <v>165</v>
+      </c>
+      <c r="G12" s="42" t="s">
+        <v>166</v>
+      </c>
+      <c r="H12" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="I12" s="11" t="s">
+        <v>41</v>
+      </c>
+      <c r="J12" s="40"/>
+    </row>
+    <row r="13" spans="1:10" ht="40.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A13" s="31"/>
+      <c r="B13" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="6" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E13" s="12" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" s="43" t="s">
+        <v>167</v>
+      </c>
+      <c r="G13" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="H13" s="21" t="s">
+        <v>116</v>
+      </c>
+      <c r="I13" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="40" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" ht="27" x14ac:dyDescent="0.3">
+      <c r="A14" s="31"/>
+      <c r="B14" s="13" t="s">
+        <v>109</v>
+      </c>
+      <c r="C14" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>7</v>
+      </c>
+      <c r="E14" s="23" t="s">
+        <v>117</v>
+      </c>
+      <c r="F14" s="44" t="s">
+        <v>170</v>
+      </c>
+      <c r="G14" s="43" t="s">
+        <v>171</v>
+      </c>
+      <c r="H14" s="21" t="s">
+        <v>110</v>
+      </c>
+      <c r="I14" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="J14" s="36"/>
+    </row>
+    <row r="15" spans="1:10" ht="40.200000000000003" x14ac:dyDescent="0.3">
+      <c r="A15" s="31"/>
+      <c r="B15" s="13" t="s">
+        <v>118</v>
+      </c>
+      <c r="C15" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E15" s="23" t="s">
+        <v>119</v>
+      </c>
+      <c r="F15" s="43" t="s">
+        <v>172</v>
+      </c>
+      <c r="G15" s="43" t="s">
+        <v>173</v>
+      </c>
+      <c r="H15" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="I15" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="J15" s="40" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A16" s="32"/>
+      <c r="B16" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>138</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="E16" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="F16" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="G16" s="43" t="s">
+        <v>176</v>
+      </c>
+      <c r="H16" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="I16" s="29" t="s">
+        <v>141</v>
+      </c>
+      <c r="J16" s="36"/>
+    </row>
+    <row r="17" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A17" s="5"/>
+      <c r="B17" s="6"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="16"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="36"/>
+    </row>
+    <row r="18" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A18" s="30" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E18" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="F18" s="42" t="s">
+        <v>121</v>
+      </c>
+      <c r="G18" s="42" t="s">
+        <v>177</v>
+      </c>
+      <c r="H18" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="I18" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="J18" s="40" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" ht="27" x14ac:dyDescent="0.3">
+      <c r="A19" s="31"/>
+      <c r="B19" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C19" s="13" t="s">
+        <v>142</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E19" s="23" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="43" t="s">
+        <v>179</v>
+      </c>
+      <c r="G19" s="43" t="s">
+        <v>180</v>
+      </c>
+      <c r="H19" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="I19" s="11" t="s">
+        <v>143</v>
+      </c>
+      <c r="J19" s="36"/>
+    </row>
+    <row r="20" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A20" s="32"/>
+      <c r="B20" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C20" s="13" t="s">
+        <v>123</v>
+      </c>
+      <c r="D20" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E20" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="F20" s="43" t="s">
+        <v>181</v>
+      </c>
+      <c r="G20" s="43" t="s">
+        <v>182</v>
+      </c>
+      <c r="H20" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="I20" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="J20" s="36"/>
+    </row>
+    <row r="21" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A21" s="5"/>
+      <c r="B21" s="6"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="18"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15"/>
+      <c r="H21" s="16"/>
+      <c r="I21" s="17"/>
+      <c r="J21" s="36"/>
+    </row>
+    <row r="22" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A22" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="C22" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="D22" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="F22" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="G22" s="15"/>
+      <c r="H22" s="10" t="s">
+        <v>57</v>
+      </c>
+      <c r="I22" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="J22" s="36"/>
+    </row>
+    <row r="23" spans="1:10" ht="52.8" x14ac:dyDescent="0.25">
+      <c r="A23" s="34"/>
+      <c r="B23" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="D23" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="F23" s="43" t="s">
+        <v>184</v>
+      </c>
+      <c r="G23" s="43" t="s">
+        <v>185</v>
+      </c>
+      <c r="H23" s="10" t="s">
+        <v>61</v>
+      </c>
+      <c r="I23" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="J23" s="40" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" ht="13.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="35"/>
+      <c r="B24" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C24" s="13" t="s">
+        <v>127</v>
+      </c>
+      <c r="D24" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E24" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="F24" s="43" t="s">
+        <v>187</v>
+      </c>
+      <c r="G24" s="43" t="s">
+        <v>168</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="I24" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="J24" s="40" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A25" s="5"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="14"/>
+      <c r="D25" s="18"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="15"/>
+      <c r="G25" s="15"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="17"/>
+      <c r="J25" s="36"/>
+    </row>
+    <row r="26" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A26" s="30" t="s">
+        <v>66</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>67</v>
+      </c>
+      <c r="C26" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D26" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E26" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F26" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="G26" s="15"/>
+      <c r="H26" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I26" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="J26" s="40" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A27" s="31"/>
+      <c r="B27" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="C27" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D27" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E27" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="G27" s="15"/>
+      <c r="H27" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="I27" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="J27" s="36"/>
+    </row>
+    <row r="28" spans="1:10" ht="27" x14ac:dyDescent="0.3">
+      <c r="A28" s="31"/>
+      <c r="B28" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="D28" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="E28" s="8" t="s">
+        <v>133</v>
+      </c>
+      <c r="F28" s="42" t="s">
+        <v>190</v>
+      </c>
+      <c r="G28" s="42" t="s">
+        <v>191</v>
+      </c>
+      <c r="H28" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="I28" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="J28" s="36"/>
+    </row>
+    <row r="29" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A29" s="31"/>
+      <c r="B29" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="C29" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D29" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E29" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F29" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="G29" s="15"/>
+      <c r="H29" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="I29" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="J29" s="36"/>
+    </row>
+    <row r="30" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A30" s="32"/>
+      <c r="B30" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C30" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="D30" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="E30" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F30" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="G30" s="15"/>
+      <c r="H30" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="I30" s="11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J30" s="36"/>
+    </row>
+    <row r="31" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31" s="6"/>
+      <c r="C31" s="14"/>
+      <c r="D31" s="15"/>
+      <c r="E31" s="15"/>
+      <c r="F31" s="15"/>
+      <c r="G31" s="15"/>
+      <c r="H31" s="16"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="36"/>
+    </row>
+    <row r="32" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A32" s="30" t="s">
+        <v>82</v>
+      </c>
+      <c r="B32" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C32" s="13" t="s">
+        <v>129</v>
+      </c>
+      <c r="D32" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E32" s="27">
+        <v>0.95</v>
+      </c>
+      <c r="F32" s="45">
+        <v>1</v>
+      </c>
+      <c r="G32" s="45">
+        <v>0.05</v>
+      </c>
+      <c r="H32" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="I32" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="J32" s="36"/>
+    </row>
+    <row r="33" spans="1:10" ht="39.6" x14ac:dyDescent="0.25">
+      <c r="A33" s="31"/>
+      <c r="B33" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="C33" s="13" t="s">
+        <v>130</v>
+      </c>
+      <c r="D33" s="18" t="s">
+        <v>18</v>
+      </c>
+      <c r="E33" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="F33" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="G33" s="15"/>
+      <c r="H33" s="10" t="s">
+        <v>87</v>
+      </c>
+      <c r="I33" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="J33" s="40" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A34" s="31"/>
+      <c r="B34" s="6" t="s">
+        <v>89</v>
+      </c>
+      <c r="C34" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="27">
+        <v>0.95</v>
+      </c>
+      <c r="F34" s="45">
+        <v>1</v>
+      </c>
+      <c r="G34" s="45">
+        <v>0.05</v>
+      </c>
+      <c r="H34" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="I34" s="11" t="s">
+        <v>92</v>
+      </c>
+      <c r="J34" s="36"/>
+    </row>
+    <row r="35" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A35" s="31"/>
+      <c r="B35" s="6" t="s">
+        <v>93</v>
+      </c>
+      <c r="C35" s="13" t="s">
+        <v>131</v>
+      </c>
+      <c r="D35" s="24" t="s">
+        <v>18</v>
+      </c>
+      <c r="E35" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F35" s="43" t="s">
+        <v>183</v>
+      </c>
+      <c r="G35" s="15"/>
+      <c r="H35" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I35" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="J35" s="36"/>
+    </row>
+    <row r="36" spans="1:10" ht="26.4" x14ac:dyDescent="0.25">
+      <c r="A36" s="32"/>
+      <c r="B36" s="6" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="D36" s="18" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" s="27">
+        <v>0.98</v>
+      </c>
+      <c r="F36" s="45">
+        <v>1</v>
+      </c>
+      <c r="G36" s="45">
+        <v>0.02</v>
+      </c>
+      <c r="H36" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="I36" s="11" t="s">
+        <v>97</v>
+      </c>
+      <c r="J36" s="36"/>
+    </row>
+    <row r="37" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B37" s="1"/>
+      <c r="D37" s="3"/>
+    </row>
+    <row r="39" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A39" s="1"/>
+      <c r="D39" s="3"/>
+    </row>
+    <row r="41" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A41" s="1"/>
+      <c r="B41" s="1"/>
+    </row>
+    <row r="42" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B42" s="1"/>
+    </row>
+    <row r="43" spans="1:10" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="B43" s="1"/>
     </row>
   </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="A26:A30"/>
+    <mergeCell ref="A32:A36"/>
+    <mergeCell ref="A2:A5"/>
+    <mergeCell ref="A7:A10"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="A22:A24"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>